--- a/Documentation/Robot_BOM.xlsx
+++ b/Documentation/Robot_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan Heddle\OneDrive\Desktop\AI-Robot\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA912B0E-4681-43C1-BD75-5D156F6FB52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0237FAF7-68B7-448E-AE90-4A02B8225C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02CBD0F1-74CF-4889-91DA-ED3C1ACE063A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{02CBD0F1-74CF-4889-91DA-ED3C1ACE063A}"/>
   </bookViews>
   <sheets>
     <sheet name="Robot_BOM" sheetId="2" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Jetson Orin Nano</t>
   </si>
   <si>
-    <t>Gemini 335</t>
-  </si>
-  <si>
     <t>PLA</t>
   </si>
   <si>
@@ -92,18 +89,6 @@
     <t>https://www.gobilda.com/8mm-round-servo-shaft-25-tooth-spline-36mm-length/?srsltid=AfmBOoppTsDPK5TAdGEWVtdA1bXoH8x3ckvVXmJyh6e4P2LmL53MeBU7&amp;utm_source=chatgpt.com</t>
   </si>
   <si>
-    <t>HTD 3M 20T Timing pulley</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Timing-Pulley-Teeth-Synchronous-20Teeth/dp/B0F4HWRB9Y?th=1</t>
-  </si>
-  <si>
-    <t>HTD 3M 32T Timing Pulley</t>
-  </si>
-  <si>
-    <t>https://www.amazon.ca/Timing-Pulley-Synchronous-Belts%EF%BC%8C-32Teeth/dp/B09J4DCGLL?th=1</t>
-  </si>
-  <si>
     <t>8mm ID Washers</t>
   </si>
   <si>
@@ -155,9 +140,6 @@
     <t>https://www.amazon.ca/NVIDIA-Jetson-Orin-Nano-Developer/dp/B0BZJTQ5YP/ref=sr_1_5?dib=eyJ2IjoiMSJ9.oBPmo8N1125w9UZ8-xtxgBB0vzdg_OFiDKOJUmUak3KsGol2xTi80fCYUWqHlOGe2kAe8ESSo6BWqINztXDYxQeYiaTolbh4JB0c7Y3jwzqBn2JFR0HiK1FyJ5kyFpPhXSp1aJv5xMC--j8b-fNhdLSSJwvjbd0XY8EXhorkOxJFMnOfcD0O0oLoypf_Fx_o_Mmr-y09hK1oqRhDgOKDMI8MH5wdi7HBtWLImeM1blm4-70toRIjqXFsuk1DjbODSwJutIPBQJ3qrJjQuqE5pt5imxUwUY1I2YieMJwjEhU.iMrYs9zK_mCJTvqh5PRE7PjCeBtP2gORpf3H3tjRj9Q&amp;dib_tag=se&amp;keywords=jetson+orin+nano+dev+kit&amp;qid=1759703130&amp;sr=8-5</t>
   </si>
   <si>
-    <t>https://store.orbbec.com/products/gemini-335?fx_sid=4e26c903-bc0e-4df4-8e1a-c9ecd9c30cc1&amp;fx_uid=8c0f2309-1f7c-441d-af87-0edf41cb8467&amp;fx_s=google&amp;fx_m=organic&amp;fx_ch=seo_organic&amp;fx_sc=google_organic</t>
-  </si>
-  <si>
     <t>High-torque smart servo used for the hip, knee, and shoulder joints to handle the primary load-bearing and dynamic movement required for humanoid locomotion.</t>
   </si>
   <si>
@@ -197,9 +179,6 @@
     <t>Main onboard computer handling perception, reinforcement learning, and motion planning in real time.</t>
   </si>
   <si>
-    <t>Provides depth and RGB vision for environmental awareness, obstacle detection, and balance correction.</t>
-  </si>
-  <si>
     <t>High-speed storage for AI models, video frames, and system data during real-time inference and logging.</t>
   </si>
   <si>
@@ -219,6 +198,27 @@
   </si>
   <si>
     <t>JLCPCB [view quote image]</t>
+  </si>
+  <si>
+    <t>OAK-D Lite</t>
+  </si>
+  <si>
+    <t>https://shop.luxonis.com/products/oak-d-lite-1?srsltid=AfmBOoq9SXp8_jsCfp5Crmmvz5wJrfFSe737xSEIB0ER3FbqNBEHMMuP</t>
+  </si>
+  <si>
+    <t>Provides depth and RGB vision for environmental awareness, obstacle detection, and balance correction. Received 30% discount from Luxonis reducing the price from $209.8 to $147 CAD.</t>
+  </si>
+  <si>
+    <t>HTD 3M 30T Timing Pulley</t>
+  </si>
+  <si>
+    <t>HTD 3M 18T Timing pulley</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005007456973949.html?spm=a2g0o.order_list.order_list_main.17.1bdb1802M7naAb</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005009686443539.html?spm=a2g0o.order_list.order_list_main.5.1bdb1802M7naAb</t>
   </si>
 </sst>
 </file>
@@ -763,14 +763,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83334E87-AA20-4FF1-AECF-F7AF79D019A8}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" customWidth="1"/>
     <col min="4" max="4" width="39.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -813,18 +813,18 @@
       <c r="F2" s="2"/>
       <c r="G2" s="8">
         <f>SUM(F3:F38)</f>
-        <v>3262.9540999999995</v>
+        <v>2793.6876999999995</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>14</v>
@@ -839,13 +839,13 @@
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -860,13 +860,13 @@
     </row>
     <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -881,55 +881,55 @@
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" s="4">
-        <v>18.579999999999998</v>
+        <v>3.02</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>167.96319999999997</v>
+        <v>27.300799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" s="4">
-        <v>24.02</v>
+        <v>6.79</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>108.57039999999999</v>
+        <v>30.690799999999996</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -944,13 +944,13 @@
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -965,13 +965,13 @@
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -986,13 +986,13 @@
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F11">
         <f t="shared" ref="F11:F20" si="1">(D11*E11)*1.13</f>
@@ -1001,13 +1001,13 @@
     </row>
     <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1022,13 +1022,13 @@
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="16" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="7"/>
@@ -1062,13 +1062,13 @@
     </row>
     <row r="17" spans="1:6" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1104,13 +1104,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="22" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="7"/>
@@ -1148,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1164,36 +1164,36 @@
         <v>389.79349999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="5">
-        <v>368.72</v>
+        <v>146.84</v>
       </c>
       <c r="F24" s="4">
         <f>(D24*E24)*1.13</f>
-        <v>416.65359999999998</v>
+        <v>165.92919999999998</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1213,19 +1213,18 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{ABAF853C-7614-4C43-8D02-3509970FF289}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{81C68F65-402F-485A-8246-28C1ED3C194F}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{568D074D-A623-41D8-A536-15D5A113AF52}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{EA5A77F4-2F86-45F3-921B-1787D591C387}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{19624655-E07A-4420-BF5C-4E78116603B4}"/>
-    <hyperlink ref="B23" r:id="rId6" display="https://www.amazon.ca/NVIDIA-Jetson-Orin-Nano-Developer/dp/B0BZJTQ5YP/ref=sr_1_5?dib=eyJ2IjoiMSJ9.oBPmo8N1125w9UZ8-xtxgBB0vzdg_OFiDKOJUmUak3KsGol2xTi80fCYUWqHlOGe2kAe8ESSo6BWqINztXDYxQeYiaTolbh4JB0c7Y3jwzqBn2JFR0HiK1FyJ5kyFpPhXSp1aJv5xMC--j8b-fNhdLSSJwvjbd0XY8EXhorkOxJFMnOfcD0O0oLoypf_Fx_o_Mmr-y09hK1oqRhDgOKDMI8MH5wdi7HBtWLImeM1blm4-70toRIjqXFsuk1DjbODSwJutIPBQJ3qrJjQuqE5pt5imxUwUY1I2YieMJwjEhU.iMrYs9zK_mCJTvqh5PRE7PjCeBtP2gORpf3H3tjRj9Q&amp;dib_tag=se&amp;keywords=jetson+orin+nano+dev+kit&amp;qid=1759703130&amp;sr=8-5" xr:uid="{1292E30F-6024-4A1A-B37C-1DA10F1BD571}"/>
-    <hyperlink ref="B24" r:id="rId7" xr:uid="{570B946F-A3F9-46CD-89E7-C74FEE892AE5}"/>
-    <hyperlink ref="B12" r:id="rId8" display="Amazon" xr:uid="{41208C38-E731-44F2-BEE2-61FCB8EB62DA}"/>
-    <hyperlink ref="B17" r:id="rId9" display="https://www.amazon.ca/DXF-Battery-Hardcase-Airplane-Helicopter/dp/B09TDFVWHS/ref=sr_1_1?dib=eyJ2IjoiMSJ9.riuler2SJ2K370oVwQohtNzuSRoCNMr3AgKZDJKD89us8ngrWmuQdQl3ogluOg-ASMoJJ5PtQqXOHwWlzm9_BE894ZhAyBr1AwkwDSZmq8nsztUxRCW0BnSoIvykL-n9mWcwi0aQil2N_n5nMjHOHitjtOPNVAtV5IuiqRomjIccON42_1kX-URmIfOZaNwR8EbgpVzZsoStStY6ZJFoaAjrDcNI1TfKhpov36r8A6D5UW7KrFyGNrIV8tdYtGV00BkjCZVLSAL0vL5SR4PBucaMePTvVA3bQu5wYEkgSmw.j3O6RipRm9qIgwoU96EFSCHXXnMJBjUAicPNW96VEQA&amp;dib_tag=se&amp;keywords=3S+8400+mah&amp;qid=1756610025&amp;sr=8-1" xr:uid="{19E65730-6900-417B-BAE6-CAB9289FD747}"/>
-    <hyperlink ref="B25" r:id="rId10" display="Amazon" xr:uid="{CDAFC55C-E851-401E-BBCF-1C6A02C64874}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{3112BEC5-0070-4734-A13C-033FA815C0C8}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{E652C524-982E-4015-931D-A51BB57A61B0}"/>
+    <hyperlink ref="B23" r:id="rId4" display="https://www.amazon.ca/NVIDIA-Jetson-Orin-Nano-Developer/dp/B0BZJTQ5YP/ref=sr_1_5?dib=eyJ2IjoiMSJ9.oBPmo8N1125w9UZ8-xtxgBB0vzdg_OFiDKOJUmUak3KsGol2xTi80fCYUWqHlOGe2kAe8ESSo6BWqINztXDYxQeYiaTolbh4JB0c7Y3jwzqBn2JFR0HiK1FyJ5kyFpPhXSp1aJv5xMC--j8b-fNhdLSSJwvjbd0XY8EXhorkOxJFMnOfcD0O0oLoypf_Fx_o_Mmr-y09hK1oqRhDgOKDMI8MH5wdi7HBtWLImeM1blm4-70toRIjqXFsuk1DjbODSwJutIPBQJ3qrJjQuqE5pt5imxUwUY1I2YieMJwjEhU.iMrYs9zK_mCJTvqh5PRE7PjCeBtP2gORpf3H3tjRj9Q&amp;dib_tag=se&amp;keywords=jetson+orin+nano+dev+kit&amp;qid=1759703130&amp;sr=8-5" xr:uid="{1292E30F-6024-4A1A-B37C-1DA10F1BD571}"/>
+    <hyperlink ref="B24" r:id="rId5" xr:uid="{570B946F-A3F9-46CD-89E7-C74FEE892AE5}"/>
+    <hyperlink ref="B12" r:id="rId6" display="Amazon" xr:uid="{41208C38-E731-44F2-BEE2-61FCB8EB62DA}"/>
+    <hyperlink ref="B17" r:id="rId7" display="https://www.amazon.ca/DXF-Battery-Hardcase-Airplane-Helicopter/dp/B09TDFVWHS/ref=sr_1_1?dib=eyJ2IjoiMSJ9.riuler2SJ2K370oVwQohtNzuSRoCNMr3AgKZDJKD89us8ngrWmuQdQl3ogluOg-ASMoJJ5PtQqXOHwWlzm9_BE894ZhAyBr1AwkwDSZmq8nsztUxRCW0BnSoIvykL-n9mWcwi0aQil2N_n5nMjHOHitjtOPNVAtV5IuiqRomjIccON42_1kX-URmIfOZaNwR8EbgpVzZsoStStY6ZJFoaAjrDcNI1TfKhpov36r8A6D5UW7KrFyGNrIV8tdYtGV00BkjCZVLSAL0vL5SR4PBucaMePTvVA3bQu5wYEkgSmw.j3O6RipRm9qIgwoU96EFSCHXXnMJBjUAicPNW96VEQA&amp;dib_tag=se&amp;keywords=3S+8400+mah&amp;qid=1756610025&amp;sr=8-1" xr:uid="{19E65730-6900-417B-BAE6-CAB9289FD747}"/>
+    <hyperlink ref="B25" r:id="rId8" display="Amazon" xr:uid="{CDAFC55C-E851-401E-BBCF-1C6A02C64874}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{3112BEC5-0070-4734-A13C-033FA815C0C8}"/>
+    <hyperlink ref="B19" r:id="rId10" xr:uid="{E652C524-982E-4015-931D-A51BB57A61B0}"/>
+    <hyperlink ref="B7" r:id="rId11" xr:uid="{435C99FE-EDD2-4E84-983E-5B33DA420949}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
-  <drawing r:id="rId14"/>
+  <pageSetup paperSize="3" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
